--- a/data/trans_dic/P16A_n_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -744,12 +745,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,0</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,72</t>
+          <t>0,0; 1,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,59</t>
+          <t>0,0; 2,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,69</t>
+          <t>0,0; 0,59</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,8</t>
+          <t>0,0; 0,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,33</t>
+          <t>0,0; 1,38</t>
         </is>
       </c>
     </row>
@@ -869,57 +870,57 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,97</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>0,0; 0,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,09</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,98</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,72</t>
+          <t>0,15; 1,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,34</t>
+          <t>0,16; 1,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,48</t>
+          <t>0,0; 1,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,59</t>
+          <t>0,06; 0,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,46</t>
+          <t>0,19; 1,4</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,82</t>
+          <t>0,08; 0,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,21</t>
+          <t>0,13; 1,16</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,13</t>
+          <t>0,14; 1,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,9</t>
+          <t>0,15; 1,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,47 +1020,47 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,53</t>
+          <t>0,45; 2,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,88</t>
+          <t>0,42; 1,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,69</t>
+          <t>0,84; 2,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,93</t>
+          <t>0,0; 1,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,62</t>
+          <t>0,82; 2,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,22</t>
+          <t>0,3; 1,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,79</t>
+          <t>0,68; 1,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,47</t>
+          <t>0,0; 0,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,15</t>
+          <t>0,84; 2,3</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,32</t>
+          <t>0,21; 2,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,39</t>
+          <t>0,32; 2,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,47 +1160,47 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,21</t>
+          <t>0,98; 4,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,59</t>
+          <t>0,98; 3,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,08</t>
+          <t>1,41; 4,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,3</t>
+          <t>1,74; 4,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,84</t>
+          <t>4,29; 8,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,3</t>
+          <t>0,8; 2,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,7</t>
+          <t>1,21; 2,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,31</t>
+          <t>0,89; 2,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,49</t>
+          <t>2,43; 5,45</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,92</t>
+          <t>0,84; 3,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,33</t>
+          <t>0,25; 2,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,62</t>
+          <t>1,38; 4,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 8,27</t>
+          <t>4,56; 8,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,02; 7,44</t>
+          <t>3,13; 7,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,46; 9,15</t>
+          <t>4,62; 9,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,56; 9,19</t>
+          <t>4,44; 9,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,04; 13,05</t>
+          <t>9,06; 13,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,85</t>
+          <t>2,32; 4,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,31</t>
+          <t>2,76; 5,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,39; 6,11</t>
+          <t>3,38; 6,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,24; 10,05</t>
+          <t>7,27; 10,04</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,12; 6,52</t>
+          <t>2,22; 6,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,66; 8,41</t>
+          <t>2,7; 8,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,85; 8,72</t>
+          <t>3,98; 9,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,27; 13,13</t>
+          <t>8,47; 13,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,72; 10,15</t>
+          <t>4,69; 10,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,31; 16,69</t>
+          <t>9,45; 16,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,93; 14,63</t>
+          <t>8,15; 14,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,72; 19,1</t>
+          <t>5,26; 19,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,63</t>
+          <t>4,2; 7,73</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,95; 11,63</t>
+          <t>7,09; 11,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,74; 11,12</t>
+          <t>6,76; 11,02</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,56; 15,24</t>
+          <t>6,42; 15,41</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,11; 14,16</t>
+          <t>6,29; 14,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,35; 16,89</t>
+          <t>7,21; 15,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,82; 12,09</t>
+          <t>5,58; 11,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,79; 22,41</t>
+          <t>15,19; 22,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,67; 10,45</t>
+          <t>4,49; 10,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,12; 22,27</t>
+          <t>14,14; 22,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,71; 18,78</t>
+          <t>10,91; 18,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>29,96; 36,03</t>
+          <t>29,5; 35,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,94</t>
+          <t>6,0; 11,02</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>12,02; 17,79</t>
+          <t>12,26; 18,1</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>9,47; 14,61</t>
+          <t>9,33; 14,55</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>24,71; 29,55</t>
+          <t>24,7; 29,72</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,02</t>
+          <t>1,12; 1,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,48</t>
+          <t>1,34; 2,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,12</t>
+          <t>1,27; 2,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,29</t>
+          <t>3,57; 5,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,23</t>
+          <t>2,05; 3,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,26; 5,77</t>
+          <t>4,33; 5,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,66; 5,01</t>
+          <t>3,6; 5,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,44; 9,97</t>
+          <t>7,12; 9,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,39</t>
+          <t>1,71; 2,42</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3,0; 3,87</t>
+          <t>2,95; 3,88</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,63; 3,48</t>
+          <t>2,58; 3,46</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,89; 7,46</t>
+          <t>5,88; 7,48</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido cinco o más medicamentos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>944</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>937</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1882</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4754</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1951</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2044</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4435</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5665</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7044</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1876</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7974</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5665</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7150</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1962</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9830</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3890</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>966</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2476</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3466</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2825</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2685</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7355</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3791</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4575</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4410</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 11930</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5563</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8506</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6288</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>887; 10245</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>905; 8471</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7131</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>868; 7725</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2526; 18172</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>961; 9383</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1239; 10823</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2668</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4887</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6281</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6072</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10943</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9352</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8740</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>15830</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>15634</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>867; 7126</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1054; 12899</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2011</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2403; 14251</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2890; 12671</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5989; 19788</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6596</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4837; 14928</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3928; 15500</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9488; 25826</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6679</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9524; 25953</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4816</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6217</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1084</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>22018</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10186</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16152</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>18238</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>42287</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>15003</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>22369</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>19321</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>64304</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1075; 12342</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1967; 14741</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5418</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8740; 36218</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5056; 17957</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>8661; 25746</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>11289; 29127</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>30613; 60756</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>8304; 25301</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>14852; 33767</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>11580; 29640</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>38938; 87278</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4450</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>12163</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>34179</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>19852</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>29788</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>32540</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>60250</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>26886</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>34238</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>44703</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>94429</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3246; 14537</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1058; 10829</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6581; 21614</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>25592; 45636</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>12633; 30365</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>20686; 42251</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>22075; 46490</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>49652; 71532</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>18322; 38998</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>24216; 46465</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>32994; 61645</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>80631; 111311</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>11635</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>15433</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>20490</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>39544</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>23758</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>45456</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>41581</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>74281</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>35393</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>60889</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>62070</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>113825</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>6495; 19272</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8365; 26272</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>13310; 31153</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>31184; 49057</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>16094; 35095</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>33450; 59981</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>30786; 55502</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>32025; 116946</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>26691; 49115</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>47047; 77493</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>48154; 78456</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>62702; 150440</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>20435</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>27017</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>21561</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>52039</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>24337</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>69297</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>56151</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>139915</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>44772</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>96314</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>77712</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>191954</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>13197; 30901</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>18010; 39403</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>14338; 30472</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>42964; 63470</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>14995; 34922</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>55020; 86977</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>43652; 73856</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>125618; 152401</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>32652; 59906</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>78297; 115644</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>61281; 95634</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>174995; 210567</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>48414</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>61895</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>56263</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>156537</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>86946</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>177131</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>153213</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>329805</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>135360</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>239025</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>209475</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>486342</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>36592; 64528</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>45861; 80691</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>43049; 70937</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>123430; 183887</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>69379; 108246</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>154178; 205263</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>127474; 178651</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>264499; 364092</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>113981; 161115</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>205742; 271287</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>179161; 239935</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>421523; 536767</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>